--- a/output/endemo2_amount_projections_2018.xlsx
+++ b/output/endemo2_amount_projections_2018.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00042</v>
+        <v>4815.54106</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2e-05</v>
+        <v>139.15266</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00037</v>
+        <v>3935.43623</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2e-05</v>
+        <v>-86.87536</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00035</v>
+        <v>29005.05314</v>
       </c>
     </row>
     <row r="7">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1e-05</v>
+        <v>-19.36039</v>
       </c>
     </row>
     <row r="8">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3e-05</v>
+        <v>-276.76135</v>
       </c>
     </row>
     <row r="9">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>3480.16039</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00011</v>
+        <v>8249.881160000001</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1e-05</v>
+        <v>-30.04668</v>
       </c>
     </row>
     <row r="12">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00012</v>
+        <v>7237.02029</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3e-05</v>
+        <v>66.96144</v>
       </c>
     </row>
     <row r="14">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00343</v>
+        <v>-1216.22126</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001</v>
+        <v>900.79324</v>
       </c>
     </row>
     <row r="16">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0004</v>
+        <v>6966.55942</v>
       </c>
     </row>
     <row r="17">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00081</v>
+        <v>6947.54976</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6e-05</v>
+        <v>2709.03188</v>
       </c>
     </row>
     <row r="19">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>-15.04831</v>
       </c>
     </row>
     <row r="20">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5e-05</v>
+        <v>934.16522</v>
       </c>
     </row>
     <row r="21">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-6e-05</v>
+        <v>-118.1247</v>
       </c>
     </row>
     <row r="22">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00068</v>
+        <v>3849.54445</v>
       </c>
     </row>
     <row r="23">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00057</v>
+        <v>3121.35942</v>
       </c>
     </row>
     <row r="24">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00036</v>
+        <v>3429.35072</v>
       </c>
     </row>
     <row r="25">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00013</v>
+        <v>8118.97681</v>
       </c>
     </row>
     <row r="26">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3e-05</v>
+        <v>-134.03285</v>
       </c>
     </row>
     <row r="27">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-2e-05</v>
+        <v>-154.06957</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0</v>
+        <v>-0.82028</v>
       </c>
     </row>
     <row r="29">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3e-05</v>
+        <v>-54.00951</v>
       </c>
     </row>
     <row r="30">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.96522</v>
       </c>
     </row>
     <row r="31">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00013</v>
+        <v>910.45317</v>
       </c>
     </row>
     <row r="32">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00012</v>
+        <v>383.06491</v>
       </c>
     </row>
     <row r="33">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.10123</v>
       </c>
     </row>
     <row r="35">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.12631</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00023</v>
+        <v>2648.98599</v>
       </c>
     </row>
     <row r="3">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2e-05</v>
+        <v>217.6</v>
       </c>
     </row>
     <row r="5">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6e-05</v>
+        <v>4942.24508</v>
       </c>
     </row>
     <row r="7">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2e-05</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4e-05</v>
+        <v>2622.98489</v>
       </c>
     </row>
     <row r="11">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2e-05</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6e-05</v>
+        <v>580.3920000000001</v>
       </c>
     </row>
     <row r="16">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00014</v>
+        <v>2496.33775</v>
       </c>
     </row>
     <row r="17">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2e-05</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1e-05</v>
+        <v>467.836</v>
       </c>
     </row>
     <row r="19">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3e-05</v>
+        <v>297.15987</v>
       </c>
     </row>
     <row r="20">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1e-05</v>
+        <v>35.92967</v>
       </c>
     </row>
     <row r="23">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3e-05</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2e-05</v>
+        <v>206.7047</v>
       </c>
     </row>
     <row r="25">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2e-05</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001</v>
+        <v>1193.0465</v>
       </c>
     </row>
     <row r="3">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2e-05</v>
+        <v>217.6</v>
       </c>
     </row>
     <row r="5">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5e-05</v>
+        <v>3838.2545</v>
       </c>
     </row>
     <row r="7">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3e-05</v>
+        <v>1219.6806</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3e-05</v>
+        <v>2176.81736</v>
       </c>
     </row>
     <row r="11">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2e-05</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="13">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4e-05</v>
+        <v>360.031</v>
       </c>
     </row>
     <row r="16">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00011</v>
+        <v>1980.52718</v>
       </c>
     </row>
     <row r="17">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2e-05</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1e-05</v>
+        <v>357.43625</v>
       </c>
     </row>
     <row r="19">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1e-05</v>
+        <v>142.4879</v>
       </c>
     </row>
     <row r="20">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1e-05</v>
+        <v>240.64951</v>
       </c>
     </row>
     <row r="21">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1e-05</v>
+        <v>33.81252</v>
       </c>
     </row>
     <row r="23">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3e-05</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3e-05</v>
+        <v>267.8821</v>
       </c>
     </row>
     <row r="25">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3e-05</v>
+        <v>175.26033</v>
       </c>
     </row>
     <row r="27">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1e-05</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="32">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2e-05</v>
+        <v>49.66076</v>
       </c>
     </row>
     <row r="35">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>785.42118</v>
       </c>
     </row>
     <row r="3">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4e-05</v>
+        <v>448.2032</v>
       </c>
     </row>
     <row r="5">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4e-05</v>
+        <v>3360.67775</v>
       </c>
     </row>
     <row r="7">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1e-05</v>
+        <v>542.34525</v>
       </c>
     </row>
     <row r="10">
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2e-05</v>
+        <v>1104.72966</v>
       </c>
     </row>
     <row r="11">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>15.86767</v>
       </c>
     </row>
     <row r="12">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2e-05</v>
+        <v>952.72792</v>
       </c>
     </row>
     <row r="13">
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5e-05</v>
+        <v>471.7058</v>
       </c>
     </row>
     <row r="16">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00013</v>
+        <v>2320.45303</v>
       </c>
     </row>
     <row r="17">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1e-05</v>
+        <v>552.78488</v>
       </c>
     </row>
     <row r="19">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3e-05</v>
+        <v>304.94485</v>
       </c>
     </row>
     <row r="20">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>42.77408</v>
       </c>
     </row>
     <row r="21">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2e-05</v>
+        <v>123.31485</v>
       </c>
     </row>
     <row r="23">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>10.39559</v>
       </c>
     </row>
     <row r="25">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>66.77307</v>
       </c>
     </row>
     <row r="26">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.00303</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002</v>
+        <v>2192.72612</v>
       </c>
     </row>
     <row r="3">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4e-05</v>
+        <v>319.3885</v>
       </c>
     </row>
     <row r="4">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>924.53707</v>
       </c>
     </row>
     <row r="5">
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>460.16788</v>
       </c>
     </row>
     <row r="6">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00029</v>
+        <v>24042.27331</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>30.64514</v>
       </c>
     </row>
     <row r="8">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6e-05</v>
+        <v>621.84786</v>
       </c>
     </row>
     <row r="9">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00015</v>
+        <v>6582.44454</v>
       </c>
     </row>
     <row r="10">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00015</v>
+        <v>9897.34002</v>
       </c>
     </row>
     <row r="11">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00011</v>
+        <v>464.07327</v>
       </c>
     </row>
     <row r="12">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00017</v>
+        <v>10117.65415</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2e-05</v>
+        <v>39.65285</v>
       </c>
     </row>
     <row r="14">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1e-05</v>
+        <v>5.77178</v>
       </c>
     </row>
     <row r="15">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6e-05</v>
+        <v>645.25379</v>
       </c>
     </row>
     <row r="16">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0002</v>
+        <v>3372.51089</v>
       </c>
     </row>
     <row r="17">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00066</v>
+        <v>5562.62252</v>
       </c>
     </row>
     <row r="18">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001</v>
+        <v>3727.99334</v>
       </c>
     </row>
     <row r="19">
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00019</v>
+        <v>2024.53008</v>
       </c>
     </row>
     <row r="20">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2e-05</v>
+        <v>440.20302</v>
       </c>
     </row>
     <row r="21">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00038</v>
+        <v>795.42949</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00016</v>
+        <v>861.96332</v>
       </c>
     </row>
     <row r="23">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00248</v>
+        <v>13254.01222</v>
       </c>
     </row>
     <row r="24">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00131</v>
+        <v>12311.5847</v>
       </c>
     </row>
     <row r="25">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>4710.68425</v>
       </c>
     </row>
     <row r="26">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00037</v>
+        <v>1811.14777</v>
       </c>
     </row>
     <row r="27">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00021</v>
+        <v>1650.60137</v>
       </c>
     </row>
     <row r="28">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1e-05</v>
+        <v>29.20798</v>
       </c>
     </row>
     <row r="30">
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5e-05</v>
+        <v>323.7612</v>
       </c>
     </row>
     <row r="32">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1e-05</v>
+        <v>2.42967</v>
       </c>
     </row>
     <row r="34">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4e-05</v>
+        <v>122.24569</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6e-05</v>
+        <v>75.4576</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00068</v>
+        <v>7414.30597</v>
       </c>
     </row>
     <row r="3">
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00035</v>
+        <v>2665.05465</v>
       </c>
     </row>
     <row r="4">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00042</v>
+        <v>4481.17772</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00034</v>
+        <v>1971.1341</v>
       </c>
     </row>
     <row r="6">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00038</v>
+        <v>31693.87262</v>
       </c>
     </row>
     <row r="7">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00072</v>
+        <v>3258.03815</v>
       </c>
     </row>
     <row r="8">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00135</v>
+        <v>14781.16171</v>
       </c>
     </row>
     <row r="9">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00071</v>
+        <v>31661.5614</v>
       </c>
     </row>
     <row r="10">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00026</v>
+        <v>18181.34274</v>
       </c>
     </row>
     <row r="11">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00072</v>
+        <v>3109.97922</v>
       </c>
     </row>
     <row r="12">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00057</v>
+        <v>34114.78918</v>
       </c>
     </row>
     <row r="13">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00038</v>
+        <v>762.58464</v>
       </c>
     </row>
     <row r="14">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00206</v>
+        <v>1074.28032</v>
       </c>
     </row>
     <row r="15">
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00028</v>
+        <v>2866.46102</v>
       </c>
     </row>
     <row r="16">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00015</v>
+        <v>2703.98905</v>
       </c>
     </row>
     <row r="17">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00053</v>
+        <v>4549.85437</v>
       </c>
     </row>
     <row r="18">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00042</v>
+        <v>16446.99915</v>
       </c>
     </row>
     <row r="19">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00084</v>
+        <v>8755.852199999999</v>
       </c>
     </row>
     <row r="20">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00039</v>
+        <v>8220.631090000001</v>
       </c>
     </row>
     <row r="21">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0005999999999999999</v>
+        <v>1237.83322</v>
       </c>
     </row>
     <row r="22">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00066</v>
+        <v>3727.91845</v>
       </c>
     </row>
     <row r="23">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00022</v>
+        <v>1234.45856</v>
       </c>
     </row>
     <row r="24">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00024</v>
+        <v>2441.61487</v>
       </c>
     </row>
     <row r="25">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00014</v>
+        <v>9238.75215</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00032</v>
+        <v>1683.7563</v>
       </c>
     </row>
     <row r="27">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00053</v>
+        <v>4404.16677</v>
       </c>
     </row>
     <row r="28">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00044</v>
+        <v>914.49349</v>
       </c>
     </row>
     <row r="30">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00048</v>
+        <v>1428.1034</v>
       </c>
     </row>
     <row r="31">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00032</v>
+        <v>2375.35398</v>
       </c>
     </row>
     <row r="32">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00026</v>
+        <v>953.2091799999999</v>
       </c>
     </row>
     <row r="33">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00023</v>
+        <v>115.80281</v>
       </c>
     </row>
     <row r="34">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00031</v>
+        <v>1005.38376</v>
       </c>
     </row>
     <row r="35">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.00041</v>
+        <v>566.34575</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00015</v>
+        <v>1696.26208</v>
       </c>
     </row>
     <row r="3">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2e-05</v>
+        <v>170.676</v>
       </c>
     </row>
     <row r="4">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00014</v>
+        <v>1448.77159</v>
       </c>
     </row>
     <row r="5">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6e-05</v>
+        <v>346.90947</v>
       </c>
     </row>
     <row r="6">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>7038.41561</v>
       </c>
     </row>
     <row r="7">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>23.40166</v>
       </c>
     </row>
     <row r="8">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3e-05</v>
+        <v>322.55931</v>
       </c>
     </row>
     <row r="9">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>3402.25919</v>
       </c>
     </row>
     <row r="10">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>5747.49437</v>
       </c>
     </row>
     <row r="11">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00011</v>
+        <v>450.008</v>
       </c>
     </row>
     <row r="12">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>5078.75048</v>
       </c>
     </row>
     <row r="13">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1e-05</v>
+        <v>27.44118</v>
       </c>
     </row>
     <row r="14">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00051</v>
+        <v>307.7745</v>
       </c>
     </row>
     <row r="15">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6e-05</v>
+        <v>612.83824</v>
       </c>
     </row>
     <row r="16">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>1308.13606</v>
       </c>
     </row>
     <row r="17">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6e-05</v>
+        <v>2365.38289</v>
       </c>
     </row>
     <row r="19">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00014</v>
+        <v>1442.6083</v>
       </c>
     </row>
     <row r="20">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2e-05</v>
+        <v>450.04149</v>
       </c>
     </row>
     <row r="21">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5e-05</v>
+        <v>112.5559</v>
       </c>
     </row>
     <row r="22">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6e-05</v>
+        <v>341.56712</v>
       </c>
     </row>
     <row r="23">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00011</v>
+        <v>580.89634</v>
       </c>
     </row>
     <row r="24">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4e-05</v>
+        <v>447.41219</v>
       </c>
     </row>
     <row r="25">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5e-05</v>
+        <v>3363.47178</v>
       </c>
     </row>
     <row r="26">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2e-05</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="32">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2e-05</v>
+        <v>51.16062</v>
       </c>
     </row>
     <row r="35">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0001</v>
+        <v>134.95833</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00029</v>
+        <v>3138.48517</v>
       </c>
     </row>
     <row r="3">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001</v>
+        <v>712.88085</v>
       </c>
     </row>
     <row r="4">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1e-05</v>
+        <v>123.42027</v>
       </c>
     </row>
     <row r="5">
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002</v>
+        <v>1046.58128</v>
       </c>
     </row>
     <row r="6">
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00017</v>
+        <v>14432.60839</v>
       </c>
     </row>
     <row r="7">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00011</v>
+        <v>435.16374</v>
       </c>
     </row>
     <row r="8">
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00015</v>
+        <v>1695.87177</v>
       </c>
     </row>
     <row r="9">
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00028</v>
+        <v>12646.07425</v>
       </c>
     </row>
     <row r="10">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00011</v>
+        <v>6969.23028</v>
       </c>
     </row>
     <row r="11">
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2e-05</v>
+        <v>62.60625</v>
       </c>
     </row>
     <row r="12">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00032</v>
+        <v>19345.86112</v>
       </c>
     </row>
     <row r="13">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00031</v>
+        <v>625.18182</v>
       </c>
     </row>
     <row r="14">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0055</v>
+        <v>2827.67867</v>
       </c>
     </row>
     <row r="15">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2e-05</v>
+        <v>217.09164</v>
       </c>
     </row>
     <row r="16">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>78.40909000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>666.81523</v>
       </c>
     </row>
     <row r="18">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00011</v>
+        <v>4227.91255</v>
       </c>
     </row>
     <row r="19">
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00019</v>
+        <v>1939.18088</v>
       </c>
     </row>
     <row r="20">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6e-05</v>
+        <v>1195.3876</v>
       </c>
     </row>
     <row r="21">
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00029</v>
+        <v>601.60694</v>
       </c>
     </row>
     <row r="22">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>375.45125</v>
       </c>
     </row>
     <row r="23">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00027</v>
+        <v>1464.5807</v>
       </c>
     </row>
     <row r="24">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00015</v>
+        <v>1519.60863</v>
       </c>
     </row>
     <row r="25">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2e-05</v>
+        <v>1541.0716</v>
       </c>
     </row>
     <row r="26">
@@ -3303,7 +3303,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00013</v>
+        <v>670.75671</v>
       </c>
     </row>
     <row r="27">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00018</v>
+        <v>1461.54644</v>
       </c>
     </row>
     <row r="28">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00016</v>
+        <v>104.10969</v>
       </c>
     </row>
     <row r="29">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00011</v>
+        <v>240.15272</v>
       </c>
     </row>
     <row r="30">
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00015</v>
+        <v>427.07282</v>
       </c>
     </row>
     <row r="31">
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3e-05</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32">
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>357.06416</v>
       </c>
     </row>
     <row r="33">
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1e-05</v>
+        <v>627.4056399999999</v>
       </c>
     </row>
     <row r="7">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2e-05</v>
+        <v>183.64065</v>
       </c>
     </row>
     <row r="9">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1e-05</v>
+        <v>412.6169</v>
       </c>
     </row>
     <row r="10">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1e-05</v>
+        <v>417.21226</v>
       </c>
     </row>
     <row r="11">
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.183630000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>134.28646</v>
       </c>
     </row>
     <row r="13">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>7.28737</v>
       </c>
     </row>
     <row r="16">
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1e-05</v>
+        <v>192.69317</v>
       </c>
     </row>
     <row r="17">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>-12.99551</v>
       </c>
     </row>
     <row r="18">
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>14.61214</v>
       </c>
     </row>
     <row r="19">
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1e-05</v>
+        <v>270.13545</v>
       </c>
     </row>
     <row r="21">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5e-05</v>
+        <v>98.60244</v>
       </c>
     </row>
     <row r="22">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3e-05</v>
+        <v>164.21608</v>
       </c>
     </row>
     <row r="23">
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1e-05</v>
+        <v>124.29258</v>
       </c>
     </row>
     <row r="25">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>230.80027</v>
       </c>
     </row>
     <row r="26">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00029</v>
+        <v>1424.14864</v>
       </c>
     </row>
     <row r="27">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>5.85819</v>
       </c>
     </row>
     <row r="28">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00015</v>
+        <v>90.5466</v>
       </c>
     </row>
     <row r="29">
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3e-05</v>
+        <v>116.2893</v>
       </c>
     </row>
     <row r="33">
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00219</v>
+        <v>722.63621</v>
       </c>
     </row>
     <row r="34">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1e-05</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1e-05</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1e-05</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1e-05</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2e-05</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1e-05</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1e-05</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2e-05</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="33">
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>-1.49078</v>
       </c>
     </row>
     <row r="3">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4e-05</v>
+        <v>290.67487</v>
       </c>
     </row>
     <row r="4">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>-0.02463</v>
       </c>
     </row>
     <row r="5">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>339.47038</v>
       </c>
     </row>
     <row r="7">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1e-05</v>
+        <v>311.68566</v>
       </c>
     </row>
     <row r="10">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>-0.67892</v>
       </c>
     </row>
     <row r="11">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>-0.03539</v>
       </c>
     </row>
     <row r="18">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1e-05</v>
+        <v>571.86143</v>
       </c>
     </row>
     <row r="19">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>-0.85878</v>
       </c>
     </row>
     <row r="20">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>-6.35582</v>
       </c>
     </row>
     <row r="21">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0</v>
+        <v>-1.51622</v>
       </c>
     </row>
     <row r="23">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4e-05</v>
+        <v>189.49815</v>
       </c>
     </row>
     <row r="24">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2e-05</v>
+        <v>185.28628</v>
       </c>
     </row>
     <row r="25">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.77408</v>
       </c>
     </row>
     <row r="27">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.88097</v>
       </c>
     </row>
     <row r="31">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>22.42633</v>
       </c>
     </row>
     <row r="32">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1e-05</v>
+        <v>152.22032</v>
       </c>
     </row>
     <row r="3">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1e-05</v>
+        <v>46.34693</v>
       </c>
     </row>
     <row r="4">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>253.9876</v>
       </c>
     </row>
     <row r="7">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>11.85625</v>
       </c>
     </row>
     <row r="10">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>-0.38855</v>
       </c>
     </row>
     <row r="11">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.19427</v>
       </c>
     </row>
     <row r="16">
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1e-05</v>
+        <v>85.07192999999999</v>
       </c>
     </row>
     <row r="18">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>64.34228</v>
       </c>
     </row>
     <row r="19">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>-0.2358</v>
       </c>
     </row>
     <row r="20">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>-1.04436</v>
       </c>
     </row>
     <row r="21">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1e-05</v>
+        <v>29.38735</v>
       </c>
     </row>
     <row r="23">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.16611</v>
       </c>
     </row>
     <row r="24">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1e-05</v>
+        <v>53.32937</v>
       </c>
     </row>
     <row r="25">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0</v>
+        <v>-4.00158</v>
       </c>
     </row>
     <row r="32">
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>890.08332</v>
       </c>
     </row>
     <row r="3">
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1e-05</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1e-05</v>
+        <v>102.83376</v>
       </c>
     </row>
     <row r="5">
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5e-05</v>
+        <v>4332.51394</v>
       </c>
     </row>
     <row r="7">
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.12201</v>
       </c>
     </row>
     <row r="8">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>17.41336</v>
       </c>
     </row>
     <row r="9">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1e-05</v>
+        <v>423.49749</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2e-05</v>
+        <v>1115.6</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>196.89558</v>
       </c>
     </row>
     <row r="13">
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3e-05</v>
+        <v>342.13071</v>
       </c>
     </row>
     <row r="16">
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4e-05</v>
+        <v>703.3885</v>
       </c>
     </row>
     <row r="17">
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1e-05</v>
+        <v>60.2115</v>
       </c>
     </row>
     <row r="18">
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1e-05</v>
+        <v>296.17048</v>
       </c>
     </row>
     <row r="19">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1e-05</v>
+        <v>114.13775</v>
       </c>
     </row>
     <row r="20">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1e-05</v>
+        <v>166.28044</v>
       </c>
     </row>
     <row r="21">
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1e-05</v>
+        <v>12.91971</v>
       </c>
     </row>
     <row r="22">
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1e-05</v>
+        <v>59.31503</v>
       </c>
     </row>
     <row r="23">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1e-05</v>
+        <v>73.77297</v>
       </c>
     </row>
     <row r="24">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1e-05</v>
+        <v>78.52636</v>
       </c>
     </row>
     <row r="25">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1e-05</v>
+        <v>423.6703</v>
       </c>
     </row>
     <row r="26">
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5e-05</v>
+        <v>286.81781</v>
       </c>
     </row>
     <row r="27">
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>25.08659</v>
       </c>
     </row>
     <row r="28">
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3">
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5e-05</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2e-05</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.22307</v>
       </c>
     </row>
     <row r="6">
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3e-05</v>
+        <v>2583.01292</v>
       </c>
     </row>
     <row r="7">
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>52.97562</v>
       </c>
     </row>
     <row r="9">
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1e-05</v>
+        <v>417.77133</v>
       </c>
     </row>
     <row r="10">
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1e-05</v>
+        <v>785.25211</v>
       </c>
     </row>
     <row r="11">
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>325.59425</v>
       </c>
     </row>
     <row r="12">
@@ -5389,7 +5389,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1e-05</v>
+        <v>304.979</v>
       </c>
     </row>
     <row r="13">
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3e-05</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
@@ -5429,7 +5429,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0001</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="17">
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5e-05</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18">
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5e-05</v>
+        <v>2028.428</v>
       </c>
     </row>
     <row r="19">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4e-05</v>
+        <v>750.92127</v>
       </c>
     </row>
     <row r="21">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>399.19604</v>
       </c>
     </row>
     <row r="23">
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>313.39298</v>
       </c>
     </row>
     <row r="26">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1e-05</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00027</v>
+        <v>763.5463099999999</v>
       </c>
     </row>
     <row r="35">
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4e-05</v>
+        <v>50.6763</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5.48007</v>
       </c>
     </row>
     <row r="3">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="5">
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.25165</v>
       </c>
     </row>
     <row r="6">
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1e-05</v>
+        <v>1129.557</v>
       </c>
     </row>
     <row r="7">
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="10">
@@ -5740,7 +5740,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>13.63717</v>
       </c>
     </row>
     <row r="11">
@@ -5750,7 +5750,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.00131</v>
       </c>
     </row>
     <row r="12">
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="16">
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3e-05</v>
+        <v>477.34</v>
       </c>
     </row>
     <row r="17">
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.01006</v>
       </c>
     </row>
     <row r="21">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.16439</v>
       </c>
     </row>
     <row r="26">
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00014</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27">
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2e-05</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32">

--- a/output/endemo2_amount_projections_2018.xlsx
+++ b/output/endemo2_amount_projections_2018.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-86.87536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.36039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-276.76135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.04668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1216.22126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-15.04831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-118.1247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-134.03285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-154.06957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.82028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-54.00951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-12.99551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.49078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.67892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.85878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.35582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.51622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.38855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.19427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.04436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4.00158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">

--- a/output/endemo2_amount_projections_2018.xlsx
+++ b/output/endemo2_amount_projections_2018.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4815.54106</v>
+        <v>4747.7376409861</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.15266</v>
+        <v>191.7870564992</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3935.43623</v>
+        <v>3858.3705158364</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29005.05314</v>
+        <v>28799.6436012084</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3480.16039</v>
+        <v>3041.3113026256</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8249.881160000001</v>
+        <v>7010.0005946975</v>
       </c>
     </row>
     <row r="11">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7237.02029</v>
+        <v>7473.1226461385</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.96144</v>
+        <v>94.2329225534</v>
       </c>
     </row>
     <row r="14">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.79324</v>
+        <v>869.7587612918001</v>
       </c>
     </row>
     <row r="16">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6966.55942</v>
+        <v>7005.622209065</v>
       </c>
     </row>
     <row r="17">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6947.54976</v>
+        <v>7266.5040893398</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2709.03188</v>
+        <v>2028.486113081</v>
       </c>
     </row>
     <row r="19">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>934.16522</v>
+        <v>873.6663137564</v>
       </c>
     </row>
     <row r="21">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3849.54445</v>
+        <v>3610.0063151931</v>
       </c>
     </row>
     <row r="23">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3121.35942</v>
+        <v>3196.8319328316</v>
       </c>
     </row>
     <row r="24">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3429.35072</v>
+        <v>3684.0170019276</v>
       </c>
     </row>
     <row r="25">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8118.97681</v>
+        <v>8574.256346312201</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.96522</v>
+        <v>3.1292860803</v>
       </c>
     </row>
     <row r="31">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>910.45317</v>
+        <v>719.6398033785</v>
       </c>
     </row>
     <row r="32">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.06491</v>
+        <v>298.517595654</v>
       </c>
     </row>
     <row r="33">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.10123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.12631</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2648.98599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4942.24508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2622.98489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>580.3920000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2496.33775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>467.836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>297.15987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.92967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.7047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1193.0465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3838.2545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1219.6806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2176.81736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>360.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1980.52718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>357.43625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.4879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>240.64951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.81252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>267.8821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175.26033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49.66076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>785.42118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.2032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3360.67775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.34525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1104.72966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.86767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>952.72792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>471.7058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2320.45303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>552.78488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>304.94485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.77408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123.31485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.39559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.77307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.00303</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2192.72612</v>
+        <v>2335.993199076</v>
       </c>
     </row>
     <row r="3">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.3885</v>
+        <v>307.2001822928</v>
       </c>
     </row>
     <row r="4">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>924.53707</v>
+        <v>938.4192420987</v>
       </c>
     </row>
     <row r="5">
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460.16788</v>
+        <v>496.7558056605</v>
       </c>
     </row>
     <row r="6">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24042.27331</v>
+        <v>24568.0587142796</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.64514</v>
+        <v>13.0177149383</v>
       </c>
     </row>
     <row r="8">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>621.84786</v>
+        <v>630.1407921269</v>
       </c>
     </row>
     <row r="9">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6582.44454</v>
+        <v>6987.5097305901</v>
       </c>
     </row>
     <row r="10">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9897.34002</v>
+        <v>10143.2729045087</v>
       </c>
     </row>
     <row r="11">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>464.07327</v>
+        <v>460.8718975031</v>
       </c>
     </row>
     <row r="12">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10117.65415</v>
+        <v>10426.6654494464</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.65285</v>
+        <v>37.5281244117</v>
       </c>
     </row>
     <row r="14">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.77178</v>
+        <v>8.521379039099999</v>
       </c>
     </row>
     <row r="15">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>645.25379</v>
+        <v>599.9100374678</v>
       </c>
     </row>
     <row r="16">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3372.51089</v>
+        <v>3527.5459339659</v>
       </c>
     </row>
     <row r="17">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5562.62252</v>
+        <v>5999.6990039434</v>
       </c>
     </row>
     <row r="18">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3727.99334</v>
+        <v>3550.4239537235</v>
       </c>
     </row>
     <row r="19">
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2024.53008</v>
+        <v>1993.356343719</v>
       </c>
     </row>
     <row r="20">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>440.20302</v>
+        <v>378.7978745025</v>
       </c>
     </row>
     <row r="21">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.42949</v>
+        <v>817.3689630507</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.96332</v>
+        <v>861.410142589</v>
       </c>
     </row>
     <row r="23">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13254.01222</v>
+        <v>14173.0376132436</v>
       </c>
     </row>
     <row r="24">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12311.5847</v>
+        <v>13785.8999590544</v>
       </c>
     </row>
     <row r="25">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4710.68425</v>
+        <v>5116.2691870932</v>
       </c>
     </row>
     <row r="26">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1811.14777</v>
+        <v>2092.4985946777</v>
       </c>
     </row>
     <row r="27">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1650.60137</v>
+        <v>1888.0663933442</v>
       </c>
     </row>
     <row r="28">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.20798</v>
+        <v>29.7244831829</v>
       </c>
     </row>
     <row r="30">
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>323.7612</v>
+        <v>300.9496427953</v>
       </c>
     </row>
     <row r="32">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.42967</v>
+        <v>3.4786953312</v>
       </c>
     </row>
     <row r="34">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.24569</v>
+        <v>106.7440867505</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75.4576</v>
+        <v>73.06125633640001</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7414.30597</v>
+        <v>8090.4149922791</v>
       </c>
     </row>
     <row r="3">
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2665.05465</v>
+        <v>2488.6549005493</v>
       </c>
     </row>
     <row r="4">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4481.17772</v>
+        <v>4418.1727285261</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1971.1341</v>
+        <v>1968.7459706594</v>
       </c>
     </row>
     <row r="6">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31693.87262</v>
+        <v>30743.2067810223</v>
       </c>
     </row>
     <row r="7">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3258.03815</v>
+        <v>3226.8922461856</v>
       </c>
     </row>
     <row r="8">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14781.16171</v>
+        <v>13562.3889995107</v>
       </c>
     </row>
     <row r="9">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31661.5614</v>
+        <v>36813.8928416086</v>
       </c>
     </row>
     <row r="10">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18181.34274</v>
+        <v>17385.4487180387</v>
       </c>
     </row>
     <row r="11">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3109.97922</v>
+        <v>3079.5505033919</v>
       </c>
     </row>
     <row r="12">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34114.78918</v>
+        <v>36998.8319181254</v>
       </c>
     </row>
     <row r="13">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.58464</v>
+        <v>602.3890469091</v>
       </c>
     </row>
     <row r="14">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1074.28032</v>
+        <v>1296.4877237073</v>
       </c>
     </row>
     <row r="15">
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2866.46102</v>
+        <v>2871.1810507083</v>
       </c>
     </row>
     <row r="16">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2703.98905</v>
+        <v>2623.3290004132</v>
       </c>
     </row>
     <row r="17">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4549.85437</v>
+        <v>4695.2640042417</v>
       </c>
     </row>
     <row r="18">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16446.99915</v>
+        <v>15852.9972288013</v>
       </c>
     </row>
     <row r="19">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8755.852199999999</v>
+        <v>9442.839826764201</v>
       </c>
     </row>
     <row r="20">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8220.631090000001</v>
+        <v>7245.5194821593</v>
       </c>
     </row>
     <row r="21">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1237.83322</v>
+        <v>1269.436279447</v>
       </c>
     </row>
     <row r="22">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3727.91845</v>
+        <v>3462.6775371759</v>
       </c>
     </row>
     <row r="23">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1234.45856</v>
+        <v>1201.87426287</v>
       </c>
     </row>
     <row r="24">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2441.61487</v>
+        <v>2210.2974661471</v>
       </c>
     </row>
     <row r="25">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9238.75215</v>
+        <v>8946.2208551278</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1683.7563</v>
+        <v>1622.0988759046</v>
       </c>
     </row>
     <row r="27">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4404.16677</v>
+        <v>4457.1031853529</v>
       </c>
     </row>
     <row r="28">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>914.49349</v>
+        <v>898.8746656136</v>
       </c>
     </row>
     <row r="30">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1428.1034</v>
+        <v>1247.211143805</v>
       </c>
     </row>
     <row r="31">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2375.35398</v>
+        <v>2428.7270251567</v>
       </c>
     </row>
     <row r="32">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.2091799999999</v>
+        <v>877.6862328111</v>
       </c>
     </row>
     <row r="33">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115.80281</v>
+        <v>50.3592151604</v>
       </c>
     </row>
     <row r="34">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1005.38376</v>
+        <v>764.8506347459</v>
       </c>
     </row>
     <row r="35">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>566.34575</v>
+        <v>541.4700359807</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1696.26208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1448.77159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346.90947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7038.41561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.40166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322.55931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3402.25919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5747.49437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>450.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5078.75048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.44118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.7745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>612.83824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1308.13606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2365.38289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1442.6083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>450.04149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>112.5559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>341.56712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>580.89634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>447.41219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3363.47178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.16062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.95833</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3138.48517</v>
+        <v>3439.5881440187</v>
       </c>
     </row>
     <row r="3">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.88085</v>
+        <v>716.8240481682</v>
       </c>
     </row>
     <row r="4">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.42027</v>
+        <v>82.13915943470001</v>
       </c>
     </row>
     <row r="5">
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1046.58128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14432.60839</v>
+        <v>14939.4998750392</v>
       </c>
     </row>
     <row r="7">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.16374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1695.87177</v>
+        <v>1709.3716865743</v>
       </c>
     </row>
     <row r="9">
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12646.07425</v>
+        <v>13617.8957460658</v>
       </c>
     </row>
     <row r="10">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6969.23028</v>
+        <v>7308.2303521426</v>
       </c>
     </row>
     <row r="11">
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.60625</v>
+        <v>55.4344471406</v>
       </c>
     </row>
     <row r="12">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19345.86112</v>
+        <v>19452.6753682083</v>
       </c>
     </row>
     <row r="13">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>625.18182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2827.67867</v>
+        <v>3594.7830971121</v>
       </c>
     </row>
     <row r="15">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>217.09164</v>
+        <v>195.6989243687</v>
       </c>
     </row>
     <row r="16">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.40909000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>666.81523</v>
+        <v>677.2220818701001</v>
       </c>
     </row>
     <row r="18">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4227.91255</v>
+        <v>4179.5530548451</v>
       </c>
     </row>
     <row r="19">
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1939.18088</v>
+        <v>1877.2100818783</v>
       </c>
     </row>
     <row r="20">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1195.3876</v>
+        <v>1152.586185277</v>
       </c>
     </row>
     <row r="21">
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.60694</v>
+        <v>602.2654171285</v>
       </c>
     </row>
     <row r="22">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>375.45125</v>
+        <v>387.2812747929</v>
       </c>
     </row>
     <row r="23">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1464.5807</v>
+        <v>1544.0577487227</v>
       </c>
     </row>
     <row r="24">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1519.60863</v>
+        <v>1524.1153553947</v>
       </c>
     </row>
     <row r="25">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1541.0716</v>
+        <v>1467.6336005417</v>
       </c>
     </row>
     <row r="26">
@@ -3303,7 +3303,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>670.75671</v>
+        <v>726.1049306259</v>
       </c>
     </row>
     <row r="27">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1461.54644</v>
+        <v>1538.0546015276</v>
       </c>
     </row>
     <row r="28">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.10969</v>
+        <v>102.6336903133</v>
       </c>
     </row>
     <row r="29">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240.15272</v>
+        <v>240.3959188718</v>
       </c>
     </row>
     <row r="30">
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>427.07282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>357.06416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627.4056399999999</v>
+        <v>651.6521868382</v>
       </c>
     </row>
     <row r="7">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.64065</v>
+        <v>174.0705878195</v>
       </c>
     </row>
     <row r="9">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>412.6169</v>
+        <v>476.911144734</v>
       </c>
     </row>
     <row r="10">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>417.21226</v>
+        <v>398.0518602138</v>
       </c>
     </row>
     <row r="11">
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.183630000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.28646</v>
+        <v>145.4102400052</v>
       </c>
     </row>
     <row r="13">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.28737</v>
+        <v>7.1753637909</v>
       </c>
     </row>
     <row r="16">
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.69317</v>
+        <v>229.2987406945</v>
       </c>
     </row>
     <row r="17">
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.61214</v>
+        <v>11.268512272</v>
       </c>
     </row>
     <row r="19">
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>270.13545</v>
+        <v>253.0036888497</v>
       </c>
     </row>
     <row r="21">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.60244</v>
+        <v>71.43140621480001</v>
       </c>
     </row>
     <row r="22">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.21608</v>
+        <v>161.6050309104</v>
       </c>
     </row>
     <row r="23">
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.29258</v>
+        <v>135.8592126879</v>
       </c>
     </row>
     <row r="25">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>230.80027</v>
+        <v>299.0620184788</v>
       </c>
     </row>
     <row r="26">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1424.14864</v>
+        <v>1594.0934469163</v>
       </c>
     </row>
     <row r="27">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.85819</v>
+        <v>2.7286680313</v>
       </c>
     </row>
     <row r="28">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.5466</v>
+        <v>80.38723554800001</v>
       </c>
     </row>
     <row r="29">
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>116.2893</v>
+        <v>140.7279848286</v>
       </c>
     </row>
     <row r="33">
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.63621</v>
+        <v>759.7648212262</v>
       </c>
     </row>
     <row r="34">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290.67487</v>
+        <v>280.9379252047</v>
       </c>
     </row>
     <row r="4">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.47038</v>
+        <v>344.1218358975</v>
       </c>
     </row>
     <row r="7">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.68566</v>
+        <v>323.2322717893</v>
       </c>
     </row>
     <row r="10">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>571.86143</v>
+        <v>582.1078247059</v>
       </c>
     </row>
     <row r="19">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>189.49815</v>
+        <v>197.6044672208</v>
       </c>
     </row>
     <row r="24">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>185.28628</v>
+        <v>203.0139324622</v>
       </c>
     </row>
     <row r="25">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.77408</v>
+        <v>7.4833675159</v>
       </c>
     </row>
     <row r="27">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.88097</v>
+        <v>0.2781973163</v>
       </c>
     </row>
     <row r="31">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.42633</v>
+        <v>18.8981405316</v>
       </c>
     </row>
     <row r="32">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.22032</v>
+        <v>160.6866355251</v>
       </c>
     </row>
     <row r="3">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.34693</v>
+        <v>44.5495889746</v>
       </c>
     </row>
     <row r="4">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253.9876</v>
+        <v>265.2444702482</v>
       </c>
     </row>
     <row r="7">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.85625</v>
+        <v>11.5487154918</v>
       </c>
     </row>
     <row r="10">
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.07192999999999</v>
+        <v>90.9026570776</v>
       </c>
     </row>
     <row r="18">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.34228</v>
+        <v>66.10739490749999</v>
       </c>
     </row>
     <row r="19">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.38735</v>
+        <v>28.6151364688</v>
       </c>
     </row>
     <row r="23">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.16611</v>
+        <v>0.5049684378</v>
       </c>
     </row>
     <row r="24">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53.32937</v>
+        <v>55.7772394173</v>
       </c>
     </row>
     <row r="25">
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>890.08332</v>
+        <v>930.6998384459</v>
       </c>
     </row>
     <row r="3">
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.2</v>
+        <v>100.5577603322</v>
       </c>
     </row>
     <row r="4">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.83376</v>
+        <v>135.1312545259</v>
       </c>
     </row>
     <row r="5">
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4332.51394</v>
+        <v>4505.3282329989</v>
       </c>
     </row>
     <row r="7">
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.12201</v>
+        <v>7.9250885378</v>
       </c>
     </row>
     <row r="8">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.41336</v>
+        <v>23.381462067</v>
       </c>
     </row>
     <row r="9">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>423.49749</v>
+        <v>479.6734669014</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.6</v>
+        <v>1055.5428782804</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>196.89558</v>
+        <v>116.7767345533</v>
       </c>
     </row>
     <row r="13">
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>342.13071</v>
+        <v>317.1632985892</v>
       </c>
     </row>
     <row r="16">
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>703.3885</v>
+        <v>740.0248975938</v>
       </c>
     </row>
     <row r="17">
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.2115</v>
+        <v>61.845195474</v>
       </c>
     </row>
     <row r="18">
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>296.17048</v>
+        <v>285.5569589866</v>
       </c>
     </row>
     <row r="19">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.13775</v>
+        <v>115.265531827</v>
       </c>
     </row>
     <row r="20">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>166.28044</v>
+        <v>148.3542265864</v>
       </c>
     </row>
     <row r="21">
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.91971</v>
+        <v>13.2411207229</v>
       </c>
     </row>
     <row r="22">
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.31503</v>
+        <v>61.0355346244</v>
       </c>
     </row>
     <row r="23">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.77297</v>
+        <v>83.5020842924</v>
       </c>
     </row>
     <row r="24">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.52636</v>
+        <v>49.0320021599</v>
       </c>
     </row>
     <row r="25">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.6703</v>
+        <v>429.7252029177</v>
       </c>
     </row>
     <row r="26">
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.81781</v>
+        <v>298.1462958035</v>
       </c>
     </row>
     <row r="27">
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25.08659</v>
+        <v>10.3723895445</v>
       </c>
     </row>
     <row r="28">
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.22307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583.01292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.97562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>417.77133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.25211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.59425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5389,7 +5389,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304.979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5429,7 +5429,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2028.428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>750.92127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.19604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>313.39298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.5463099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.6763</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.48007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.25165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129.557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5740,7 +5740,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.63717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5750,7 +5750,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>477.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.16439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">

--- a/output/endemo2_amount_projections_2018.xlsx
+++ b/output/endemo2_amount_projections_2018.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4747.7376409861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.7870564992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3858.3705158364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28799.6436012084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3041.3113026256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7010.0005946975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7473.1226461385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.2329225534</v>
+        <v>79.4507036657</v>
       </c>
     </row>
     <row r="14">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>869.7587612918001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7005.622209065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7266.5040893398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2028.486113081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>873.6663137564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3610.0063151931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3196.8319328316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3684.0170019276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8574.256346312201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.1292860803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.6398033785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298.517595654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2335.993199076</v>
+        <v>2330.5420294995</v>
       </c>
     </row>
     <row r="3">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.2001822928</v>
+        <v>311.8444718212</v>
       </c>
     </row>
     <row r="4">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.4192420987</v>
+        <v>931.6389662662</v>
       </c>
     </row>
     <row r="5">
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>496.7558056605</v>
+        <v>495.6006341929</v>
       </c>
     </row>
     <row r="6">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24568.0587142796</v>
+        <v>24442.1652085912</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.0177149383</v>
+        <v>16.0965894055</v>
       </c>
     </row>
     <row r="8">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>630.1407921269</v>
+        <v>622.299137233</v>
       </c>
     </row>
     <row r="9">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6987.5097305901</v>
+        <v>6932.5421345551</v>
       </c>
     </row>
     <row r="10">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10143.2729045087</v>
+        <v>9970.731257272901</v>
       </c>
     </row>
     <row r="11">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>460.8718975031</v>
+        <v>453.350733722</v>
       </c>
     </row>
     <row r="12">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10426.6654494464</v>
+        <v>10332.3062555283</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.5281244117</v>
+        <v>36.3951041709</v>
       </c>
     </row>
     <row r="14">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.521379039099999</v>
+        <v>7.0730814158</v>
       </c>
     </row>
     <row r="15">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9100374678</v>
+        <v>616.2000532224</v>
       </c>
     </row>
     <row r="16">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3527.5459339659</v>
+        <v>3491.9743096676</v>
       </c>
     </row>
     <row r="17">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5999.6990039434</v>
+        <v>5937.2597674029</v>
       </c>
     </row>
     <row r="18">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3550.4239537235</v>
+        <v>3641.3479146008</v>
       </c>
     </row>
     <row r="19">
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1993.356343719</v>
+        <v>1997.8478353432</v>
       </c>
     </row>
     <row r="20">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>378.7978745025</v>
+        <v>392.8070473097</v>
       </c>
     </row>
     <row r="21">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>817.3689630507</v>
+        <v>815.9434664426</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.410142589</v>
+        <v>859.972268227</v>
       </c>
     </row>
     <row r="23">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14173.0376132436</v>
+        <v>13933.1439886563</v>
       </c>
     </row>
     <row r="24">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13785.8999590544</v>
+        <v>13544.1149952597</v>
       </c>
     </row>
     <row r="25">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5116.2691870932</v>
+        <v>5035.3691960091</v>
       </c>
     </row>
     <row r="26">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2092.4985946777</v>
+        <v>2029.1459140583</v>
       </c>
     </row>
     <row r="27">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1888.0663933442</v>
+        <v>1845.4135431481</v>
       </c>
     </row>
     <row r="28">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.7244831829</v>
+        <v>29.3719505427</v>
       </c>
     </row>
     <row r="30">
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>300.9496427953</v>
+        <v>320.3985230944</v>
       </c>
     </row>
     <row r="32">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.4786953312</v>
+        <v>3.426623842</v>
       </c>
     </row>
     <row r="34">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.7440867505</v>
+        <v>110.3220201591</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.06125633640001</v>
+        <v>73.3031003756</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8090.4149922791</v>
+        <v>7963.7780625784</v>
       </c>
     </row>
     <row r="3">
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2488.6549005493</v>
+        <v>2480.4423465695</v>
       </c>
     </row>
     <row r="4">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4418.1727285261</v>
+        <v>4401.2399948629</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1968.7459706594</v>
+        <v>1967.470891339</v>
       </c>
     </row>
     <row r="6">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30743.2067810223</v>
+        <v>30817.6245281912</v>
       </c>
     </row>
     <row r="7">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3226.8922461856</v>
+        <v>3221.3292818066</v>
       </c>
     </row>
     <row r="8">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13562.3889995107</v>
+        <v>13857.777530483</v>
       </c>
     </row>
     <row r="9">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36813.8928416086</v>
+        <v>35400.1047483396</v>
       </c>
     </row>
     <row r="10">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17385.4487180387</v>
+        <v>17204.4565791394</v>
       </c>
     </row>
     <row r="11">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3079.5505033919</v>
+        <v>3038.4757041105</v>
       </c>
     </row>
     <row r="12">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36998.8319181254</v>
+        <v>35890.176252811</v>
       </c>
     </row>
     <row r="13">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>602.3890469091</v>
+        <v>643.8459715212</v>
       </c>
     </row>
     <row r="14">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1296.4877237073</v>
+        <v>1283.5196095865</v>
       </c>
     </row>
     <row r="15">
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2871.1810507083</v>
+        <v>2829.9271633831</v>
       </c>
     </row>
     <row r="16">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2623.3290004132</v>
+        <v>2605.1478495455</v>
       </c>
     </row>
     <row r="17">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4695.2640042417</v>
+        <v>4685.2405258054</v>
       </c>
     </row>
     <row r="18">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15852.9972288013</v>
+        <v>15884.7919834354</v>
       </c>
     </row>
     <row r="19">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9442.839826764201</v>
+        <v>9130.2411873685</v>
       </c>
     </row>
     <row r="20">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7245.5194821593</v>
+        <v>7312.0989503456</v>
       </c>
     </row>
     <row r="21">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1269.436279447</v>
+        <v>1249.3410186342</v>
       </c>
     </row>
     <row r="22">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3462.6775371759</v>
+        <v>3492.2337749073</v>
       </c>
     </row>
     <row r="23">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1201.87426287</v>
+        <v>1199.7346616256</v>
       </c>
     </row>
     <row r="24">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2210.2974661471</v>
+        <v>2271.8903002493</v>
       </c>
     </row>
     <row r="25">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8946.2208551278</v>
+        <v>9056.347303513799</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1622.0988759046</v>
+        <v>1643.6766413736</v>
       </c>
     </row>
     <row r="27">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4457.1031853529</v>
+        <v>4472.3963103326</v>
       </c>
     </row>
     <row r="28">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>898.8746656136</v>
+        <v>902.5140603896</v>
       </c>
     </row>
     <row r="30">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1247.211143805</v>
+        <v>1293.0703603217</v>
       </c>
     </row>
     <row r="31">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2428.7270251567</v>
+        <v>2399.8779114579</v>
       </c>
     </row>
     <row r="32">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>877.6862328111</v>
+        <v>876.691909212</v>
       </c>
     </row>
     <row r="33">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.3592151604</v>
+        <v>60.5506520937</v>
       </c>
     </row>
     <row r="34">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>764.8506347459</v>
+        <v>788.7682165486</v>
       </c>
     </row>
     <row r="35">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>541.4700359807</v>
+        <v>537.5141794198</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3439.5881440187</v>
+        <v>3366.0901045362</v>
       </c>
     </row>
     <row r="3">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>716.8240481682</v>
+        <v>713.2068862166</v>
       </c>
     </row>
     <row r="4">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.13915943470001</v>
+        <v>101.8981843381</v>
       </c>
     </row>
     <row r="5">
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14939.4998750392</v>
+        <v>14747.0627807765</v>
       </c>
     </row>
     <row r="7">
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.3716865743</v>
+        <v>1676.8916417964</v>
       </c>
     </row>
     <row r="9">
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13617.8957460658</v>
+        <v>13255.9586203289</v>
       </c>
     </row>
     <row r="10">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7308.2303521426</v>
+        <v>7080.4469558994</v>
       </c>
     </row>
     <row r="11">
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.4344471406</v>
+        <v>62.5701237918</v>
       </c>
     </row>
     <row r="12">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19452.6753682083</v>
+        <v>19485.2690075771</v>
       </c>
     </row>
     <row r="13">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3594.7830971121</v>
+        <v>3471.2025589502</v>
       </c>
     </row>
     <row r="15">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.6989243687</v>
+        <v>207.1638268035</v>
       </c>
     </row>
     <row r="16">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>677.2220818701001</v>
+        <v>679.8686303652</v>
       </c>
     </row>
     <row r="18">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4179.5530548451</v>
+        <v>4235.7947524659</v>
       </c>
     </row>
     <row r="19">
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1877.2100818783</v>
+        <v>1906.3681190685</v>
       </c>
     </row>
     <row r="20">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1152.586185277</v>
+        <v>1172.5180019987</v>
       </c>
     </row>
     <row r="21">
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2654171285</v>
+        <v>607.5826473323</v>
       </c>
     </row>
     <row r="22">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>387.2812747929</v>
+        <v>393.8008756541</v>
       </c>
     </row>
     <row r="23">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1544.0577487227</v>
+        <v>1527.3693102589</v>
       </c>
     </row>
     <row r="24">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1524.1153553947</v>
+        <v>1549.7034430264</v>
       </c>
     </row>
     <row r="25">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1467.6336005417</v>
+        <v>1480.3344919248</v>
       </c>
     </row>
     <row r="26">
@@ -3303,7 +3303,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>726.1049306259</v>
+        <v>713.115127061</v>
       </c>
     </row>
     <row r="27">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1538.0546015276</v>
+        <v>1534.5434956711</v>
       </c>
     </row>
     <row r="28">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.6336903133</v>
+        <v>104.2800597572</v>
       </c>
     </row>
     <row r="29">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240.3959188718</v>
+        <v>243.0278750417</v>
       </c>
     </row>
     <row r="30">
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>216.1178056209</v>
       </c>
     </row>
     <row r="32">
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.6521868382</v>
+        <v>643.5408371324</v>
       </c>
     </row>
     <row r="7">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.0705878195</v>
+        <v>174.877150251</v>
       </c>
     </row>
     <row r="9">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>476.911144734</v>
+        <v>468.5192795935</v>
       </c>
     </row>
     <row r="10">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.0518602138</v>
+        <v>395.8014321344</v>
       </c>
     </row>
     <row r="11">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.4102400052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.1753637909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229.2987406945</v>
+        <v>216.7381705494</v>
       </c>
     </row>
     <row r="17">
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.268512272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>253.0036888497</v>
+        <v>255.2634130616</v>
       </c>
     </row>
     <row r="21">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.43140621480001</v>
+        <v>72.8971139882</v>
       </c>
     </row>
     <row r="22">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.6050309104</v>
+        <v>162.4320213683</v>
       </c>
     </row>
     <row r="23">
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>135.8592126879</v>
+        <v>135.1309119757</v>
       </c>
     </row>
     <row r="25">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>299.0620184788</v>
+        <v>282.2007898429</v>
       </c>
     </row>
     <row r="26">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1594.0934469163</v>
+        <v>1574.3293736099</v>
       </c>
     </row>
     <row r="27">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.7286680313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.38723554800001</v>
+        <v>77.74596221349999</v>
       </c>
     </row>
     <row r="29">
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>140.7279848286</v>
+        <v>139.9555562382</v>
       </c>
     </row>
     <row r="33">
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>759.7648212262</v>
+        <v>768.6608934091</v>
       </c>
     </row>
     <row r="34">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.9379252047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.1218358975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>323.2322717893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>582.1078247059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>197.6044672208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>203.0139324622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.4833675159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2781973163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.8981405316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.6866355251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.5495889746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>265.2444702482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.5487154918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.9026570776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>66.10739490749999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.6151364688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5049684378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.7772394173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>930.6998384459</v>
+        <v>916.8196993567</v>
       </c>
     </row>
     <row r="3">
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.5577603322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.1312545259</v>
+        <v>120.5942661158</v>
       </c>
     </row>
     <row r="5">
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4505.3282329989</v>
+        <v>4442.5087201082</v>
       </c>
     </row>
     <row r="7">
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.9250885378</v>
+        <v>8.094174998</v>
       </c>
     </row>
     <row r="8">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.381462067</v>
+        <v>20.1772296278</v>
       </c>
     </row>
     <row r="9">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>479.6734669014</v>
+        <v>435.4868366428</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1055.5428782804</v>
+        <v>1054.4386657702</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116.7767345533</v>
+        <v>139.8886383467</v>
       </c>
     </row>
     <row r="13">
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>317.1632985892</v>
+        <v>331.0261540441</v>
       </c>
     </row>
     <row r="16">
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>740.0248975938</v>
+        <v>728.0506172216</v>
       </c>
     </row>
     <row r="17">
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.845195474</v>
+        <v>61.4626436925</v>
       </c>
     </row>
     <row r="18">
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>285.5569589866</v>
+        <v>294.4938873837</v>
       </c>
     </row>
     <row r="19">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115.265531827</v>
+        <v>114.9340091543</v>
       </c>
     </row>
     <row r="20">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>148.3542265864</v>
+        <v>153.7725459084</v>
       </c>
     </row>
     <row r="21">
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.2411207229</v>
+        <v>13.1856323864</v>
       </c>
     </row>
     <row r="22">
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.0355346244</v>
+        <v>60.9943306868</v>
       </c>
     </row>
     <row r="23">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.5020842924</v>
+        <v>78.62955662589999</v>
       </c>
     </row>
     <row r="24">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.0320021599</v>
+        <v>59.2409360557</v>
       </c>
     </row>
     <row r="25">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>429.7252029177</v>
+        <v>420.9457733579</v>
       </c>
     </row>
     <row r="26">
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.1462958035</v>
+        <v>291.4030808861</v>
       </c>
     </row>
     <row r="27">
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.3723895445</v>
+        <v>16.0172341842</v>
       </c>
     </row>
     <row r="28">

--- a/output/endemo2_amount_projections_2018.xlsx
+++ b/output/endemo2_amount_projections_2018.xlsx
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.4507036657</v>
+        <v>79.2039275472</v>
       </c>
     </row>
     <row r="14">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2330.5420294995</v>
+        <v>2386.7350504722</v>
       </c>
     </row>
     <row r="3">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.8444718212</v>
+        <v>350.8086148922</v>
       </c>
     </row>
     <row r="4">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>931.6389662662</v>
+        <v>850.7451905665999</v>
       </c>
     </row>
     <row r="5">
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>495.6006341929</v>
+        <v>499.6364464216</v>
       </c>
     </row>
     <row r="6">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24442.1652085912</v>
+        <v>25292.6666919066</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.0965894055</v>
+        <v>134.8151374435</v>
       </c>
     </row>
     <row r="8">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>622.299137233</v>
+        <v>485.3765758082</v>
       </c>
     </row>
     <row r="9">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6932.5421345551</v>
+        <v>6979.8852341307</v>
       </c>
     </row>
     <row r="10">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9970.731257272901</v>
+        <v>15683.5795022683</v>
       </c>
     </row>
     <row r="11">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>453.350733722</v>
+        <v>454.883635958</v>
       </c>
     </row>
     <row r="12">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10332.3062555283</v>
+        <v>10150.3121293548</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.3951041709</v>
+        <v>40.0599767601</v>
       </c>
     </row>
     <row r="14">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.0730814158</v>
+        <v>7.102246231</v>
       </c>
     </row>
     <row r="15">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>616.2000532224</v>
+        <v>851.590154436</v>
       </c>
     </row>
     <row r="16">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3491.9743096676</v>
+        <v>2862.1863440867</v>
       </c>
     </row>
     <row r="17">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5937.2597674029</v>
+        <v>5562.0485442637</v>
       </c>
     </row>
     <row r="18">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3641.3479146008</v>
+        <v>6505.8229817014</v>
       </c>
     </row>
     <row r="19">
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1997.8478353432</v>
+        <v>2198.1129850901</v>
       </c>
     </row>
     <row r="20">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>392.8070473097</v>
+        <v>379.3635365228</v>
       </c>
     </row>
     <row r="21">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>815.9434664426</v>
+        <v>818.9736998766</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>859.972268227</v>
+        <v>955.2138812278999</v>
       </c>
     </row>
     <row r="23">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13933.1439886563</v>
+        <v>11801.1189834848</v>
       </c>
     </row>
     <row r="24">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13544.1149952597</v>
+        <v>11927.0047822509</v>
       </c>
     </row>
     <row r="25">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5035.3691960091</v>
+        <v>3873.4286425043</v>
       </c>
     </row>
     <row r="26">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2029.1459140583</v>
+        <v>1227.9983719078</v>
       </c>
     </row>
     <row r="27">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1845.4135431481</v>
+        <v>1432.6666783121</v>
       </c>
     </row>
     <row r="28">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.3719505427</v>
+        <v>26.4365125137</v>
       </c>
     </row>
     <row r="30">
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>320.3985230944</v>
+        <v>493.3390385661</v>
       </c>
     </row>
     <row r="32">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.426623842</v>
+        <v>3.4172842242</v>
       </c>
     </row>
     <row r="34">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.3220201591</v>
+        <v>290.3223524823</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.3031003756</v>
+        <v>80.0779070815</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7963.7780625784</v>
+        <v>6531.1982775692</v>
       </c>
     </row>
     <row r="3">
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2480.4423465695</v>
+        <v>2126.274101738</v>
       </c>
     </row>
     <row r="4">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4401.2399948629</v>
+        <v>3350.8914350681</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1967.470891339</v>
+        <v>1849.2452520753</v>
       </c>
     </row>
     <row r="6">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30817.6245281912</v>
+        <v>30778.3853798394</v>
       </c>
     </row>
     <row r="7">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3221.3292818066</v>
+        <v>6368.9859802827</v>
       </c>
     </row>
     <row r="8">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13857.777530483</v>
+        <v>8407.285384884301</v>
       </c>
     </row>
     <row r="9">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35400.1047483396</v>
+        <v>23759.61301459</v>
       </c>
     </row>
     <row r="10">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17204.4565791394</v>
+        <v>28990.4430808753</v>
       </c>
     </row>
     <row r="11">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3038.4757041105</v>
+        <v>2842.6595158841</v>
       </c>
     </row>
     <row r="12">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35890.176252811</v>
+        <v>26657.0622826651</v>
       </c>
     </row>
     <row r="13">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>643.8459715212</v>
+        <v>957.5806911955</v>
       </c>
     </row>
     <row r="14">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1283.5196095865</v>
+        <v>1167.1168804713</v>
       </c>
     </row>
     <row r="15">
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2829.9271633831</v>
+        <v>2986.6320839199</v>
       </c>
     </row>
     <row r="16">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2605.1478495455</v>
+        <v>2036.5266270393</v>
       </c>
     </row>
     <row r="17">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4685.2405258054</v>
+        <v>4528.4900772175</v>
       </c>
     </row>
     <row r="18">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15884.7919834354</v>
+        <v>22524.1970888768</v>
       </c>
     </row>
     <row r="19">
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9130.2411873685</v>
+        <v>6201.9623762503</v>
       </c>
     </row>
     <row r="20">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7312.0989503456</v>
+        <v>7336.0704149343</v>
       </c>
     </row>
     <row r="21">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1249.3410186342</v>
+        <v>973.402211502</v>
       </c>
     </row>
     <row r="22">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3492.2337749073</v>
+        <v>3581.1399966184</v>
       </c>
     </row>
     <row r="23">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1199.7346616256</v>
+        <v>1392.9889689929</v>
       </c>
     </row>
     <row r="24">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2271.8903002493</v>
+        <v>2861.9945526084</v>
       </c>
     </row>
     <row r="25">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9056.347303513799</v>
+        <v>9443.3921941013</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1643.6766413736</v>
+        <v>1862.023932759</v>
       </c>
     </row>
     <row r="27">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4472.3963103326</v>
+        <v>4395.1816139407</v>
       </c>
     </row>
     <row r="28">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>902.5140603896</v>
+        <v>912.1466581925999</v>
       </c>
     </row>
     <row r="30">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1293.0703603217</v>
+        <v>2357.3164799636</v>
       </c>
     </row>
     <row r="31">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2399.8779114579</v>
+        <v>1817.9992497272</v>
       </c>
     </row>
     <row r="32">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>876.691909212</v>
+        <v>849.67981936</v>
       </c>
     </row>
     <row r="33">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60.5506520937</v>
+        <v>177.5086472811</v>
       </c>
     </row>
     <row r="34">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.7682165486</v>
+        <v>1786.4214860609</v>
       </c>
     </row>
     <row r="35">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>537.5141794198</v>
+        <v>528.7463960865</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3366.0901045362</v>
+        <v>3137.3333638953</v>
       </c>
     </row>
     <row r="3">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>713.2068862166</v>
+        <v>662.8772678271</v>
       </c>
     </row>
     <row r="4">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.8981843381</v>
+        <v>187.1929792754</v>
       </c>
     </row>
     <row r="5">
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14747.0627807765</v>
+        <v>14745.4804747338</v>
       </c>
     </row>
     <row r="7">
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1676.8916417964</v>
+        <v>1686.9328934361</v>
       </c>
     </row>
     <row r="9">
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13255.9586203289</v>
+        <v>12000.1768022534</v>
       </c>
     </row>
     <row r="10">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7080.4469558994</v>
+        <v>10578.4163151474</v>
       </c>
     </row>
     <row r="11">
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.5701237918</v>
+        <v>74.52604210760001</v>
       </c>
     </row>
     <row r="12">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19485.2690075771</v>
+        <v>19166.1751082983</v>
       </c>
     </row>
     <row r="13">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3471.2025589502</v>
+        <v>2918.2085010061</v>
       </c>
     </row>
     <row r="15">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>207.1638268035</v>
+        <v>351.581624267</v>
       </c>
     </row>
     <row r="16">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>679.8686303652</v>
+        <v>780.4161820822</v>
       </c>
     </row>
     <row r="18">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4235.7947524659</v>
+        <v>6304.7448647049</v>
       </c>
     </row>
     <row r="19">
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1906.3681190685</v>
+        <v>2229.0851216163</v>
       </c>
     </row>
     <row r="20">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1172.5180019987</v>
+        <v>1249.3365025614</v>
       </c>
     </row>
     <row r="21">
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>607.5826473323</v>
+        <v>672.0149639492</v>
       </c>
     </row>
     <row r="22">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>393.8008756541</v>
+        <v>401.5685422886</v>
       </c>
     </row>
     <row r="23">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1527.3693102589</v>
+        <v>1550.7885438499</v>
       </c>
     </row>
     <row r="24">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1549.7034430264</v>
+        <v>1617.5105020949</v>
       </c>
     </row>
     <row r="25">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1480.3344919248</v>
+        <v>1491.5147196376</v>
       </c>
     </row>
     <row r="26">
@@ -3303,7 +3303,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>713.115127061</v>
+        <v>681.3453594332</v>
       </c>
     </row>
     <row r="27">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1534.5434956711</v>
+        <v>1487.1731822742</v>
       </c>
     </row>
     <row r="28">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.2800597572</v>
+        <v>135.1748448513</v>
       </c>
     </row>
     <row r="29">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>243.0278750417</v>
+        <v>276.6780234494</v>
       </c>
     </row>
     <row r="30">
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.1178056209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32">
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643.5408371324</v>
+        <v>484.6363054935</v>
       </c>
     </row>
     <row r="7">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.877150251</v>
+        <v>169.5033804624</v>
       </c>
     </row>
     <row r="9">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>468.5192795935</v>
+        <v>328.5140390669</v>
       </c>
     </row>
     <row r="10">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>395.8014321344</v>
+        <v>719.4540185677</v>
       </c>
     </row>
     <row r="11">
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.7381705494</v>
+        <v>83.38897798230001</v>
       </c>
     </row>
     <row r="17">
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>255.2634130616</v>
+        <v>286.0628334636</v>
       </c>
     </row>
     <row r="21">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.8971139882</v>
+        <v>71.7067978</v>
       </c>
     </row>
     <row r="22">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162.4320213683</v>
+        <v>209.4584584959</v>
       </c>
     </row>
     <row r="23">
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>135.1309119757</v>
+        <v>124.6379539807</v>
       </c>
     </row>
     <row r="25">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>282.2007898429</v>
+        <v>123.4637289649</v>
       </c>
     </row>
     <row r="26">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1574.3293736099</v>
+        <v>1482.6349270892</v>
       </c>
     </row>
     <row r="27">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.74596221349999</v>
+        <v>45.0420447981</v>
       </c>
     </row>
     <row r="29">
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>139.9555562382</v>
+        <v>133.7</v>
       </c>
     </row>
     <row r="33">
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>768.6608934091</v>
+        <v>985.3530527276</v>
       </c>
     </row>
     <row r="34">
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>916.8196993567</v>
+        <v>915.4614793683</v>
       </c>
     </row>
     <row r="3">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.5942661158</v>
+        <v>121.6660190167</v>
       </c>
     </row>
     <row r="5">
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4442.5087201082</v>
+        <v>4446.2757975824</v>
       </c>
     </row>
     <row r="7">
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.094174998</v>
+        <v>16.411172949</v>
       </c>
     </row>
     <row r="8">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.1772296278</v>
+        <v>20.3124846355</v>
       </c>
     </row>
     <row r="9">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>435.4868366428</v>
+        <v>433.657834659</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1054.4386657702</v>
+        <v>2007.6908315921</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>139.8886383467</v>
+        <v>141.4187606185</v>
       </c>
     </row>
     <row r="13">
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>331.0261540441</v>
+        <v>430.0080968944</v>
       </c>
     </row>
     <row r="16">
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.0506172216</v>
+        <v>725.3109006993</v>
       </c>
     </row>
     <row r="17">
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.4626436925</v>
+        <v>61.5569201487</v>
       </c>
     </row>
     <row r="18">
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>294.4938873837</v>
+        <v>400.3995477578</v>
       </c>
     </row>
     <row r="19">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.9340091543</v>
+        <v>114.7067231633</v>
       </c>
     </row>
     <row r="20">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153.7725459084</v>
+        <v>155.4600549801</v>
       </c>
     </row>
     <row r="21">
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.1856323864</v>
+        <v>12.956235316</v>
       </c>
     </row>
     <row r="22">
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.9943306868</v>
+        <v>60.9537256277</v>
       </c>
     </row>
     <row r="23">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.62955662589999</v>
+        <v>78.7361214906</v>
       </c>
     </row>
     <row r="24">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.2409360557</v>
+        <v>59.5760365719</v>
       </c>
     </row>
     <row r="25">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>420.9457733579</v>
+        <v>449.5275538241</v>
       </c>
     </row>
     <row r="26">
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>291.4030808861</v>
+        <v>288.6122470802</v>
       </c>
     </row>
     <row r="27">
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.0172341842</v>
+        <v>16.0791044189</v>
       </c>
     </row>
     <row r="28">
